--- a/profiles/summary.xlsx
+++ b/profiles/summary.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\PennHW\CIS565\Project4-CUDA-Denoiser\profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67295EC0-D4ED-42B8-AC70-AEB27AD0D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0EB743-CE59-46DA-9C75-6D50EE11B06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DenoisingTime" sheetId="1" r:id="rId1"/>
+    <sheet name="ShMem" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>fps</t>
   </si>
@@ -62,6 +72,22 @@
   </si>
   <si>
     <t>MicroFacet1280x720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterSize4Temporal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilterSize4ShMem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CeilingLight800x800(SharedMem)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicroFacet1280x720(SharedMem)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Denoising Time with Different Filter Size (Lower is Better)</a:t>
+              <a:t>Denoising Time Per Frame with Different Filter Size (Lower is Better)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -274,22 +300,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.8894</c:v>
+                  <c:v>14.7197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.079999999999998</c:v>
+                  <c:v>17.914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.2484</c:v>
+                  <c:v>20.241900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.654299999999999</c:v>
+                  <c:v>22.845400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.842300000000002</c:v>
+                  <c:v>26.006599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.6402</c:v>
+                  <c:v>28.436900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,22 +372,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.704699999999999</c:v>
+                  <c:v>20.779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.14</c:v>
+                  <c:v>24.336500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.3156</c:v>
+                  <c:v>28.0229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.402799999999999</c:v>
+                  <c:v>31.398599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.202800000000003</c:v>
+                  <c:v>34.444099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.9861</c:v>
+                  <c:v>38.117600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +748,1410 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Denoising Time Per Frame with and without Temporal Filter </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Lower is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DenoisingTime!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Denoising</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(DenoisingTime!$A$1,DenoisingTime!$A$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CeilingLight800x800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MicroFacet1280x720</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(DenoisingTime!$C$2,DenoisingTime!$C$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14.7197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-362A-4DD5-AF00-F88071F574A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DenoisingTime!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FilterSize4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(DenoisingTime!$A$1,DenoisingTime!$A$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CeilingLight800x800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MicroFacet1280x720</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(DenoisingTime!$C$5,DenoisingTime!$C$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22.845400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.398599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-362A-4DD5-AF00-F88071F574A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DenoisingTime!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FilterSize4Temporal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(DenoisingTime!$A$1,DenoisingTime!$A$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CeilingLight800x800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MicroFacet1280x720</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(DenoisingTime!$C$8,DenoisingTime!$C$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25.7529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.9161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-362A-4DD5-AF00-F88071F574A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1153859263"/>
+        <c:axId val="1153860927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1153859263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>scene</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92060818984563453"/>
+              <c:y val="0.71994267735852246"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153860927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1153860927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="36"/>
+          <c:min val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>duration/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1827829249034764E-2"/>
+              <c:y val="8.8279282476994889E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153859263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Denoising Time Per Frame with and without Shared</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Memory </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Lower is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ShMem!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CeilingLight800x800(SharedMem)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ShMem!$A$9:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FilterSize1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FilterSize2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FilterSize4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ShMem!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.8355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.9922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.612100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15FB-4608-804E-2C88652F32C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ShMem!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CeilingLight800x800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ShMem!$A$9:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FilterSize1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FilterSize2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FilterSize4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ShMem!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.241900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.845400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15FB-4608-804E-2C88652F32C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ShMem!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MicroFacet1280x720(SharedMem)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ShMem!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.859300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.187100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.255099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15FB-4608-804E-2C88652F32C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ShMem!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MicroFacet1280x720</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ShMem!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.336500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.398599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-15FB-4608-804E-2C88652F32C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1153859263"/>
+        <c:axId val="1153860927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1153859263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>filter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90011244647050692"/>
+              <c:y val="0.67701106128983191"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153860927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1153860927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42"/>
+          <c:min val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>duration/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1622250310816411"/>
+              <c:y val="8.5212738472088406E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153859263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1278,6 +2707,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1303,6 +3764,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1037E536-91EE-435D-8A11-A46B2E534A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D899410F-4F1C-4BE8-B4E3-8FDFF8F55677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1582,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1609,10 +4151,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>65.126499999999993</v>
+        <v>68.095399999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>15.8894</v>
+        <v>14.7197</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>55.549900000000001</v>
+        <v>55.950699999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>18.079999999999998</v>
+        <v>17.914000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +4173,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>47.220999999999997</v>
+        <v>49.441699999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>21.2484</v>
+        <v>20.241900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +4184,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>42.351399999999998</v>
+        <v>43.788400000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>23.654299999999999</v>
+        <v>22.845400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>37.317799999999998</v>
+        <v>38.467100000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>26.842300000000002</v>
+        <v>26.006599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +4206,21 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>33.7896</v>
+        <v>35.192399999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>29.6402</v>
+        <v>28.436900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38.852699999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25.7529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +4239,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>46.2331</v>
+        <v>48.1678</v>
       </c>
       <c r="C12" s="1">
-        <v>21.704699999999999</v>
+        <v>20.779</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>38.609299999999998</v>
+        <v>41.118699999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>26.14</v>
+        <v>24.336500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +4261,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>34.171700000000001</v>
+        <v>35.705599999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>29.3156</v>
+        <v>28.0229</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +4272,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>30.903099999999998</v>
+        <v>31.864599999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>32.402799999999999</v>
+        <v>31.398599999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>27.666899999999998</v>
+        <v>29.0425</v>
       </c>
       <c r="C16" s="1">
-        <v>36.202800000000003</v>
+        <v>34.444099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +4294,32 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>25.0593</v>
+        <v>26.246500000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>39.9861</v>
+        <v>38.117600000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29.508700000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>33.9161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24.245100000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41.256700000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1753,4 +4328,205 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A39CAF-84BE-4898-9A81-1AB418FC73B4}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>63.197000000000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.8355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43.778100000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>22.859300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>52.702500000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18.9922</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36.808</v>
+      </c>
+      <c r="G3" s="1">
+        <v>27.187100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>32.694400000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30.612100000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24.2468</v>
+      </c>
+      <c r="G4" s="1">
+        <v>41.255099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <f>DenoisingTime!B3</f>
+        <v>55.950699999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <f>DenoisingTime!C3</f>
+        <v>17.914000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <f>DenoisingTime!B13</f>
+        <v>41.118699999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <f>DenoisingTime!C13</f>
+        <v>24.336500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <f>DenoisingTime!B4</f>
+        <v>49.441699999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <f>DenoisingTime!C4</f>
+        <v>20.241900000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <f>DenoisingTime!B14</f>
+        <v>35.705599999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <f>DenoisingTime!C14</f>
+        <v>28.0229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <f>DenoisingTime!B5</f>
+        <v>43.788400000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <f>DenoisingTime!C5</f>
+        <v>22.845400000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <f>DenoisingTime!B15</f>
+        <v>31.864599999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f>DenoisingTime!C15</f>
+        <v>31.398599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>